--- a/biology/Écologie/Bioévaluation/Bioévaluation.xlsx
+++ b/biology/Écologie/Bioévaluation/Bioévaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bio%C3%A9valuation</t>
+          <t>Bioévaluation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bioévaluation environnementale est un des domaines de l'évaluation environnementale, fondé sur des bases scientifiques issues de la biologie, de l'éthologie, de la toxicologie, de l'écotoxicologie et de l'écologie du paysage. Elle évalue la qualité d'un élément de l'environnement ou d'un milieu (aquatique, marin, terrestre, forestier, agricole, industriel, rural, urbain, nocturne, etc.), souvent dans une approche évaluative dite état/pression/réponse. 
 Elle est basée sur l'observation d'effets ou d'états  biologiques ou écosystémiques, au niveau de l'individu et/ou de populations ou écosystèmes (à l'échelle de la biosphère ou de grands biomes éventuellement, par exemple pour l'évaluation du millénaire des services écosystémiques rendu par la biodiversité, dans le cadre du Millennium Ecosystems Assessment). 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bio%C3%A9valuation</t>
+          <t>Bioévaluation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Méthodes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elles varient selon les époques et les moyens techniques, scientifiques disponibles et les objectifs et ambitions et durée de l'évaluation.
 Elles s'appuient généralement sur des bio-indicateurs
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bio%C3%A9valuation</t>
+          <t>Bioévaluation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Utilités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La bioévaluation est notamment utilisée, de manière ponctuelle ou durable) pour :
 mesurer l'état de l'eau, de l'air, d'un sol ou de l'environnement plus global.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bio%C3%A9valuation</t>
+          <t>Bioévaluation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>L'être humain comme bioindicateur ?</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’homme, le spermatozoïde, la fertilité humaine, la durée moyenne de vie, ou le taux de cancers (et leur nature) ou d'autres maladies peuvent faire partie des batteries d'indicateurs évaluant l'état de l'environnement. 
 Ce sont les « intégrateurs naturels » les plus objectifs d'un état environnemental, et donc des impacts des activités humaines combinés à d’éventuels aléas bio-géo-climatiques naturels... (ce qui les rend éventuellement plus facilement contestables)
